--- a/outputs/industry_report.xlsx
+++ b/outputs/industry_report.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-28905" yWindow="0" windowWidth="13440" windowHeight="15585" tabRatio="600" firstSheet="0" activeTab="1" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-28905" yWindow="0" windowWidth="14610" windowHeight="15585" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="1" state="visible" r:id="rId1"/>
@@ -416,8 +416,8 @@
   </sheetPr>
   <dimension ref="B2:C8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.5"/>
@@ -432,7 +432,7 @@
     <row r="3">
       <c r="B3" t="inlineStr">
         <is>
-          <t>Employee Count</t>
+          <t>Compmany Count</t>
         </is>
       </c>
       <c r="C3">
@@ -450,11 +450,11 @@
     <row r="8">
       <c r="B8" t="inlineStr">
         <is>
-          <t>Employee Count</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="C8">
-        <f>COUNTA(#REF!)-1</f>
+        <f>COUNTA(region_stats[Region Code])</f>
         <v/>
       </c>
     </row>
@@ -471,8 +471,8 @@
   </sheetPr>
   <dimension ref="A2:D12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C11" sqref="B10:C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.5" outlineLevelCol="0"/>
